--- a/requirements/MOSIP_Requirements Change_Tracker_27Nov18.xlsx
+++ b/requirements/MOSIP_Requirements Change_Tracker_27Nov18.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\Desktop\PROJECTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045447\Desktop\id issuance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{96524207-28DF-4013-80B2-3C1B484E66C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_QueryLog_External" sheetId="5" r:id="rId1"/>
     <sheet name="Values" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_QueryLog_External!$A$2:$H$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_QueryLog_External!$A$2:$H$53</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="135">
   <si>
     <t>MOSIP - Requirements Change Log</t>
   </si>
@@ -1766,11 +1765,55 @@
 4. Please confirm the length for Device ID to be 36</t>
     </r>
   </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Since the requirement is not detailed the effort may change.</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Change algorithm from lavenstine distance to phonetic and soundex match</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Need more clarification on the requirement. Estimation may change after clarification.</t>
+  </si>
+  <si>
+    <t>Estimation may change after understanding overall scope of the change.</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Assumptions : RP will expose 2 apis
+1. to provide applicant info.
+2. receive updated info and incorporate it.</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2109,8 +2152,36 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2384,35 +2455,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.26953125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="71.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="41" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="71.1796875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="34.54296875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.7265625" style="41" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.81640625" style="16" customWidth="1"/>
     <col min="15" max="15" width="35" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="20.28515625" style="16"/>
+    <col min="16" max="16384" width="20.26953125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -2431,7 +2503,7 @@
       <c r="N1" s="43"/>
       <c r="O1" s="44"/>
     </row>
-    <row r="2" spans="1:15" ht="57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
@@ -2478,7 +2550,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2526,7 +2598,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -2574,7 +2646,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="4" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -2622,7 +2694,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="4" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -2670,7 +2742,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -2716,7 +2788,7 @@
       </c>
       <c r="O7" s="31"/>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -2762,7 +2834,7 @@
       </c>
       <c r="O8" s="31"/>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -2806,7 +2878,7 @@
       </c>
       <c r="O9" s="31"/>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -2854,7 +2926,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -2892,13 +2964,14 @@
         <v>43419</v>
       </c>
       <c r="M11" s="14"/>
-      <c r="N11" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="31"/>
-    </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+      <c r="N11" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -2936,13 +3009,14 @@
         <v>43419</v>
       </c>
       <c r="M12" s="14"/>
-      <c r="N12" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="31"/>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.25">
+      <c r="N12" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" s="31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" ht="154" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -2980,13 +3054,14 @@
         <v>43419</v>
       </c>
       <c r="M13" s="14"/>
-      <c r="N13" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="31"/>
-    </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+      <c r="N13" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" s="31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -3024,13 +3099,12 @@
         <v>43419</v>
       </c>
       <c r="M14" s="14"/>
-      <c r="N14" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="N14" s="37" t="s">
+        <v>133</v>
       </c>
       <c r="O14" s="31"/>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="4" customFormat="1" ht="98" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -3068,13 +3142,14 @@
         <v>43419</v>
       </c>
       <c r="M15" s="14"/>
-      <c r="N15" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="31"/>
-    </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="N15" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" s="31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -3116,7 +3191,7 @@
       </c>
       <c r="O16" s="31"/>
     </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="4" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -3158,7 +3233,7 @@
       </c>
       <c r="O17" s="31"/>
     </row>
-    <row r="18" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -3206,7 +3281,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -3254,7 +3329,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="84" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -3292,13 +3367,14 @@
         <v>43419</v>
       </c>
       <c r="M20" s="14"/>
-      <c r="N20" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="31"/>
-    </row>
-    <row r="21" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="N20" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -3342,7 +3418,7 @@
       </c>
       <c r="O21" s="31"/>
     </row>
-    <row r="22" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -3386,7 +3462,7 @@
       </c>
       <c r="O22" s="31"/>
     </row>
-    <row r="23" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -3430,7 +3506,7 @@
       </c>
       <c r="O23" s="31"/>
     </row>
-    <row r="24" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -3478,7 +3554,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -3522,7 +3598,7 @@
       </c>
       <c r="O25" s="31"/>
     </row>
-    <row r="26" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -3566,7 +3642,7 @@
       </c>
       <c r="O26" s="22"/>
     </row>
-    <row r="27" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="70" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -3614,7 +3690,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -3648,7 +3724,7 @@
       </c>
       <c r="O28" s="8"/>
     </row>
-    <row r="29" spans="1:15" s="13" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="13" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -3682,7 +3758,7 @@
       </c>
       <c r="O29" s="8"/>
     </row>
-    <row r="30" spans="1:15" s="13" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="13" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -3716,7 +3792,7 @@
       </c>
       <c r="O30" s="8"/>
     </row>
-    <row r="31" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -3750,7 +3826,7 @@
       </c>
       <c r="O31" s="22"/>
     </row>
-    <row r="32" spans="1:15" ht="114" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -3784,7 +3860,7 @@
       </c>
       <c r="O32" s="22"/>
     </row>
-    <row r="33" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -3818,7 +3894,7 @@
       </c>
       <c r="O33" s="8"/>
     </row>
-    <row r="34" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -3852,7 +3928,7 @@
       </c>
       <c r="O34" s="8"/>
     </row>
-    <row r="35" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -3886,7 +3962,7 @@
       </c>
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -3920,7 +3996,7 @@
       </c>
       <c r="O36" s="8"/>
     </row>
-    <row r="37" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -3954,7 +4030,7 @@
       </c>
       <c r="O37" s="8"/>
     </row>
-    <row r="38" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -3988,7 +4064,7 @@
       </c>
       <c r="O38" s="8"/>
     </row>
-    <row r="39" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -4022,7 +4098,7 @@
       </c>
       <c r="O39" s="8"/>
     </row>
-    <row r="40" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="252" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -4050,13 +4126,12 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="N40" s="37" t="s">
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
     </row>
-    <row r="41" spans="1:15" ht="171" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="154" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -4084,13 +4159,14 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="8"/>
-    </row>
-    <row r="42" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="N41" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="42" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -4118,13 +4194,14 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="7"/>
-      <c r="N42" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="8"/>
-    </row>
-    <row r="43" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="N42" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>40</v>
       </c>
@@ -4158,7 +4235,7 @@
       </c>
       <c r="O43" s="8"/>
     </row>
-    <row r="44" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>41</v>
       </c>
@@ -4192,7 +4269,7 @@
       </c>
       <c r="O44" s="8"/>
     </row>
-    <row r="45" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>42</v>
       </c>
@@ -4226,7 +4303,7 @@
       </c>
       <c r="O45" s="8"/>
     </row>
-    <row r="46" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>43</v>
       </c>
@@ -4260,7 +4337,7 @@
       </c>
       <c r="O46" s="8"/>
     </row>
-    <row r="47" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>44</v>
       </c>
@@ -4294,7 +4371,7 @@
       </c>
       <c r="O47" s="8"/>
     </row>
-    <row r="48" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>45</v>
       </c>
@@ -4328,7 +4405,7 @@
       </c>
       <c r="O48" s="8"/>
     </row>
-    <row r="49" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>46</v>
       </c>
@@ -4362,7 +4439,7 @@
       </c>
       <c r="O49" s="8"/>
     </row>
-    <row r="50" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>47</v>
       </c>
@@ -4396,7 +4473,7 @@
       </c>
       <c r="O50" s="8"/>
     </row>
-    <row r="51" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>48</v>
       </c>
@@ -4430,7 +4507,7 @@
       </c>
       <c r="O51" s="8"/>
     </row>
-    <row r="52" spans="1:15" ht="57" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>49</v>
       </c>
@@ -4464,7 +4541,7 @@
       </c>
       <c r="O52" s="8"/>
     </row>
-    <row r="53" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>50</v>
       </c>
@@ -4499,7 +4576,13 @@
       <c r="O53" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H34" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:H53">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Registration Processor"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
@@ -4509,59 +4592,59 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B8" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B9" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B10" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B11" s="15"/>
     </row>
   </sheetData>
@@ -4571,29 +4654,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4804,27 +4870,35 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4849,9 +4923,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/requirements/MOSIP_Requirements Change_Tracker_27Nov18.xlsx
+++ b/requirements/MOSIP_Requirements Change_Tracker_27Nov18.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045447\Desktop\id issuance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{35A77A99-B07C-441B-8B4D-F40C79793442}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_QueryLog_External" sheetId="5" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_QueryLog_External!$A$2:$H$53</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="140">
   <si>
     <t>MOSIP - Requirements Change Log</t>
   </si>
@@ -1809,11 +1810,88 @@
   <si>
     <t>52</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Face Authentication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+1. Face authentication can be moved to a later version of MOSIP and is out of scope for v1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Virus Scan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+1. Virus scan should be performed before and after decryption of registration packet, during processing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>ID Validation Components de-scoped</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+The following components have been de-scoped as there is no valid use-case:
+1. Token ID Validation
+2. Static PIN Validation
+3. Registration Center ID Validation
+4. Machine ID Validation</t>
+    </r>
+  </si>
+  <si>
+    <t>Requirements Elicitation Discussion with Shrikant_Email dated 14Nov18 on "ID Generation"</t>
+  </si>
+  <si>
+    <t>Static PIN Generation:
+1. This has been de-scoped as the Resident is expected to set it up in resident portal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2021,7 +2099,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2147,6 +2225,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2177,7 +2258,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2455,36 +2536,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:O53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.26953125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="71.1796875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="34.54296875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="20.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.54296875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="12.7265625" style="41" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15.81640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="71.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="41" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="16" customWidth="1"/>
     <col min="15" max="15" width="35" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="20.26953125" style="16"/>
+    <col min="16" max="16384" width="20.28515625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -2503,7 +2583,7 @@
       <c r="N1" s="43"/>
       <c r="O1" s="44"/>
     </row>
-    <row r="2" spans="1:15" ht="42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="57" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
@@ -2550,7 +2630,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2598,7 +2678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -2639,14 +2719,14 @@
         <v>12</v>
       </c>
       <c r="N4" s="37">
-        <f t="shared" ref="N4:N53" si="0">M4*1.5</f>
+        <f t="shared" ref="N4:N55" si="0">M4*1.5</f>
         <v>18</v>
       </c>
       <c r="O4" s="31" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -2694,7 +2774,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -2742,7 +2822,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -2788,7 +2868,7 @@
       </c>
       <c r="O7" s="31"/>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -2834,7 +2914,7 @@
       </c>
       <c r="O8" s="31"/>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -2878,7 +2958,7 @@
       </c>
       <c r="O9" s="31"/>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -2926,7 +3006,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -2971,7 +3051,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -3016,7 +3096,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" ht="154" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -3061,7 +3141,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -3104,7 +3184,7 @@
       </c>
       <c r="O14" s="31"/>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" ht="98" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -3149,7 +3229,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -3191,7 +3271,7 @@
       </c>
       <c r="O16" s="31"/>
     </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -3233,7 +3313,7 @@
       </c>
       <c r="O17" s="31"/>
     </row>
-    <row r="18" spans="1:15" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -3281,7 +3361,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -3329,7 +3409,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="84" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -3374,7 +3454,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -3418,7 +3498,7 @@
       </c>
       <c r="O21" s="31"/>
     </row>
-    <row r="22" spans="1:15" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -3462,7 +3542,7 @@
       </c>
       <c r="O22" s="31"/>
     </row>
-    <row r="23" spans="1:15" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -3506,7 +3586,7 @@
       </c>
       <c r="O23" s="31"/>
     </row>
-    <row r="24" spans="1:15" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -3554,7 +3634,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -3598,7 +3678,7 @@
       </c>
       <c r="O25" s="31"/>
     </row>
-    <row r="26" spans="1:15" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -3642,7 +3722,7 @@
       </c>
       <c r="O26" s="22"/>
     </row>
-    <row r="27" spans="1:15" ht="70" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -3690,7 +3770,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -3724,7 +3804,7 @@
       </c>
       <c r="O28" s="8"/>
     </row>
-    <row r="29" spans="1:15" s="13" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" s="13" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -3758,7 +3838,7 @@
       </c>
       <c r="O29" s="8"/>
     </row>
-    <row r="30" spans="1:15" s="13" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" s="13" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -3792,7 +3872,7 @@
       </c>
       <c r="O30" s="8"/>
     </row>
-    <row r="31" spans="1:15" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -3826,7 +3906,7 @@
       </c>
       <c r="O31" s="22"/>
     </row>
-    <row r="32" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="114" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -3860,7 +3940,7 @@
       </c>
       <c r="O32" s="22"/>
     </row>
-    <row r="33" spans="1:15" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -3894,7 +3974,7 @@
       </c>
       <c r="O33" s="8"/>
     </row>
-    <row r="34" spans="1:15" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -3928,7 +4008,7 @@
       </c>
       <c r="O34" s="8"/>
     </row>
-    <row r="35" spans="1:15" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -3962,7 +4042,7 @@
       </c>
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="1:15" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -3996,7 +4076,7 @@
       </c>
       <c r="O36" s="8"/>
     </row>
-    <row r="37" spans="1:15" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -4030,7 +4110,7 @@
       </c>
       <c r="O37" s="8"/>
     </row>
-    <row r="38" spans="1:15" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -4064,7 +4144,7 @@
       </c>
       <c r="O38" s="8"/>
     </row>
-    <row r="39" spans="1:15" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -4098,7 +4178,7 @@
       </c>
       <c r="O39" s="8"/>
     </row>
-    <row r="40" spans="1:15" ht="252" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -4131,7 +4211,7 @@
       </c>
       <c r="O40" s="8"/>
     </row>
-    <row r="41" spans="1:15" ht="154" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="171" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -4166,7 +4246,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="42" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -4201,7 +4281,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>40</v>
       </c>
@@ -4235,7 +4315,7 @@
       </c>
       <c r="O43" s="8"/>
     </row>
-    <row r="44" spans="1:15" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>41</v>
       </c>
@@ -4269,7 +4349,7 @@
       </c>
       <c r="O44" s="8"/>
     </row>
-    <row r="45" spans="1:15" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>42</v>
       </c>
@@ -4303,7 +4383,7 @@
       </c>
       <c r="O45" s="8"/>
     </row>
-    <row r="46" spans="1:15" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>43</v>
       </c>
@@ -4337,7 +4417,7 @@
       </c>
       <c r="O46" s="8"/>
     </row>
-    <row r="47" spans="1:15" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>44</v>
       </c>
@@ -4371,7 +4451,7 @@
       </c>
       <c r="O47" s="8"/>
     </row>
-    <row r="48" spans="1:15" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>45</v>
       </c>
@@ -4405,7 +4485,7 @@
       </c>
       <c r="O48" s="8"/>
     </row>
-    <row r="49" spans="1:15" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>46</v>
       </c>
@@ -4439,7 +4519,7 @@
       </c>
       <c r="O49" s="8"/>
     </row>
-    <row r="50" spans="1:15" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>47</v>
       </c>
@@ -4473,7 +4553,7 @@
       </c>
       <c r="O50" s="8"/>
     </row>
-    <row r="51" spans="1:15" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>48</v>
       </c>
@@ -4507,7 +4587,7 @@
       </c>
       <c r="O51" s="8"/>
     </row>
-    <row r="52" spans="1:15" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="57" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>49</v>
       </c>
@@ -4541,7 +4621,7 @@
       </c>
       <c r="O52" s="8"/>
     </row>
-    <row r="53" spans="1:15" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>50</v>
       </c>
@@ -4575,14 +4655,138 @@
       </c>
       <c r="O53" s="8"/>
     </row>
+    <row r="54" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>51</v>
+      </c>
+      <c r="B54" s="6">
+        <v>43432</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="8"/>
+    </row>
+    <row r="55" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>52</v>
+      </c>
+      <c r="B55" s="6">
+        <v>43432</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="8"/>
+    </row>
+    <row r="56" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>53</v>
+      </c>
+      <c r="B56" s="6">
+        <v>43432</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="45"/>
+      <c r="O56" s="8"/>
+    </row>
+    <row r="57" spans="1:15" ht="57" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>54</v>
+      </c>
+      <c r="B57" s="6">
+        <v>43432</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="45"/>
+      <c r="O57" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H53">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Registration Processor"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:H53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
@@ -4592,59 +4796,59 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
     </row>
   </sheetData>
@@ -4654,15 +4858,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4869,6 +5064,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4896,14 +5100,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F1DD169-1613-4852-8D49-4C3CB1FDBF80}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4918,6 +5114,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/requirements/MOSIP_Requirements Change_Tracker_27Nov18.xlsx
+++ b/requirements/MOSIP_Requirements Change_Tracker_27Nov18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{35A77A99-B07C-441B-8B4D-F40C79793442}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A05AB67B-7D98-41E4-A211-4A8E54511CA4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Values" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_QueryLog_External!$A$2:$H$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_QueryLog_External!$A$2:$L$62</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="170">
   <si>
     <t>MOSIP - Requirements Change Log</t>
   </si>
@@ -69,10 +69,6 @@
   </si>
   <si>
     <t>Effort (PDs)</t>
-  </si>
-  <si>
-    <t>Query log review with xxx on 19-Sep-18 - Refer &lt;Master_Query_Log&gt; 
-in PwS</t>
   </si>
   <si>
     <t>Registration Client</t>
@@ -1366,32 +1362,6 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Deduplication</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>:
-1. Multi-model deduplication – MOSIP to give all biometrics to ABIS &gt; Receive scores from ABIS &gt; Derive an overall composite score across modalities by utilizing scores from each modality (dedupe type) &gt; Automate the evaluation of derived result &gt; MOSIP to have a fusion algorithm to derive a composite score
-2. Implement Multi-ABIS solution
-3. Create dummy ABIS
-4. Include manual adjudication after biometric dedupe
-5. Ability of system to receive scores for face dedupe to derive the composite score (ABIS to perform face dedupe on packets identified as duplicates post demo/biometric dedupe)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
       <t>Storage of Biometrics as Images</t>
     </r>
     <r>
@@ -1513,29 +1483,6 @@
       </rPr>
       <t>:
 1. Ability of Admin to be remotely located and register operators to Client</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>User Onboarding - Login using QR Code through Mobile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>:
-1. Usage of QR codes through mobile for login to registration Client
-2. Ability of Admin to be remotely located and register operators to Client</t>
     </r>
   </si>
   <si>
@@ -1886,6 +1833,236 @@
   <si>
     <t>Static PIN Generation:
 1. This has been de-scoped as the Resident is expected to set it up in resident portal</t>
+  </si>
+  <si>
+    <t>Query log review on 19-Sep-18 - Refer &lt;Master_Query_Log&gt; 
+in PwS</t>
+  </si>
+  <si>
+    <t>Query log review with Anadi/Ramesh (JIRA) on 06-Dec-18</t>
+  </si>
+  <si>
+    <t>License Key Generation:
+1. License key generation to be invoked through admin portal with an approval process &gt; Key to be associated to the TSP ID &gt; TSP should have a mechanism to access the key</t>
+  </si>
+  <si>
+    <t>The mapping requirement is valid.
+1. Data related to Machine mapping with all devices should be a part of the packet 
+2.  The existence of the devices and its respective mapping should be validated on the client and server side</t>
+  </si>
+  <si>
+    <t>Drag and drop approach or better should be implemented</t>
+  </si>
+  <si>
+    <t>This is not required. This should be driven by master data as defined by the Country.</t>
+  </si>
+  <si>
+    <t>This should be implemented</t>
+  </si>
+  <si>
+    <t>As concluded with Sanjay, MOSIP should consider only exact match strategy</t>
+  </si>
+  <si>
+    <t>This can be implemented based on demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is not required.  </t>
+  </si>
+  <si>
+    <t>TBD with Sanjay</t>
+  </si>
+  <si>
+    <t>Automated QC should be implemented as part of v1 - Towards May'18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Multi-modality concept should be implemented
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Deduplication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+1. Multi-model deduplication – MOSIP to give all biometrics to ABIS &gt; Receive scores from ABIS &gt; Derive an overall composite score across modalities by utilizing scores from each modality (dedupe type) &gt; Automate the evaluation of derived result &gt; MOSIP to have a fusion algorithm to derive a composite score
+4. Include manual adjudication after biometric dedupe
+5. Ability of system to receive scores for face dedupe to derive the composite score (ABIS to perform face dedupe on packets identified as duplicates post demo/biometric dedupe)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Deduplication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+1. Implement Multi-ABIS solution
+2. Create dummy ABIS
+4. Include manual adjudication after biometric dedupe
+5. Ability of system to receive scores for face dedupe to derive the composite score (ABIS to perform face dedupe on packets identified as duplicates post demo/biometric dedupe)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Deduplication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+1. Create dummy ABIS</t>
+    </r>
+  </si>
+  <si>
+    <t>This can be evaluated based on outcome of Cloud ABIS capability</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Deduplication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+1. Include manual adjudication after biometric dedupe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Deduplication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+1. Ability of system to receive scores for face dedupe to derive the composite score (ABIS to perform face dedupe on packets identified as duplicates post demo/biometric dedupe)</t>
+    </r>
+  </si>
+  <si>
+    <t>TBD with sanjay
+- Articulate it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBD Shravan
+</t>
+  </si>
+  <si>
+    <t>Aadhaar way</t>
+  </si>
+  <si>
+    <t>TBD with Sanjay
+This can be implemented based on demand</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>User Onboarding - Login using QR Code through Mobile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+1. Usage of QR codes through mobile for login to registration Client</t>
+    </r>
+  </si>
+  <si>
+    <t>This should be considered - Ability of RO to onboard himself without the requirement of a SPVR/Admin as an entry point</t>
+  </si>
+  <si>
+    <t>This should be implemented as it reduces hardware dependency</t>
+  </si>
+  <si>
+    <t>This can be implemented as part of Resident Services portal where a Service provider can obtain biometrics of UIN holder, perform biometric auth for specific updates</t>
+  </si>
+  <si>
+    <t>Internal requirement evaluation</t>
+  </si>
+  <si>
+    <t>This can be implemented based on demand - No requirement identified in v1</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>TBD with Sanjay
+- Should MOSIP support multiple license keys per TSP
+- Should we have a separate portal for key generation or can this be automated/mailed?</t>
+  </si>
+  <si>
+    <t>Sanjay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBD with Sanjay
+In a single ABIS solution in which face/Iris is fed to ABIS&lt; face dedupe will not add value
+</t>
   </si>
 </sst>
 </file>
@@ -2099,7 +2276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2216,6 +2393,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2225,8 +2405,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2537,11 +2717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2559,29 +2739,29 @@
     <col min="11" max="11" width="12.28515625" style="3" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="3" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" style="41" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="16" customWidth="1"/>
-    <col min="15" max="15" width="35" style="3" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="16" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="35" style="3" hidden="1" customWidth="1"/>
     <col min="16" max="16384" width="20.28515625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="45"/>
     </row>
     <row r="2" spans="1:15" ht="57" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
@@ -2597,7 +2777,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>5</v>
@@ -2624,10 +2804,10 @@
         <v>12</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
@@ -2638,31 +2818,31 @@
         <v>43362</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="I3" s="8">
         <v>1</v>
       </c>
       <c r="J3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="L3" s="31">
         <v>43419</v>
@@ -2675,7 +2855,7 @@
         <v>54</v>
       </c>
       <c r="O3" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
@@ -2686,31 +2866,31 @@
         <v>43362</v>
       </c>
       <c r="C4" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="I4" s="8">
         <v>1</v>
       </c>
       <c r="J4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="L4" s="31">
         <v>43419</v>
@@ -2719,11 +2899,11 @@
         <v>12</v>
       </c>
       <c r="N4" s="37">
-        <f t="shared" ref="N4:N55" si="0">M4*1.5</f>
+        <f t="shared" ref="N4:N59" si="0">M4*1.5</f>
         <v>18</v>
       </c>
       <c r="O4" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
@@ -2734,31 +2914,31 @@
         <v>43362</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="8">
         <v>1</v>
       </c>
       <c r="J5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="L5" s="31">
         <v>43419</v>
@@ -2771,7 +2951,7 @@
         <v>52.5</v>
       </c>
       <c r="O5" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
@@ -2782,31 +2962,31 @@
         <v>43362</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="29" t="s">
         <v>24</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>25</v>
       </c>
       <c r="I6" s="29">
         <v>1</v>
       </c>
       <c r="J6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="L6" s="31">
         <v>43419</v>
@@ -2819,10 +2999,10 @@
         <v>45</v>
       </c>
       <c r="O6" s="32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -2830,31 +3010,31 @@
         <v>43362</v>
       </c>
       <c r="C7" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="E7" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="29" t="s">
         <v>26</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>27</v>
       </c>
       <c r="I7" s="29">
         <v>1</v>
       </c>
       <c r="J7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="L7" s="31">
         <v>43419</v>
@@ -2876,31 +3056,31 @@
         <v>43362</v>
       </c>
       <c r="C8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="G8" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="I8" s="8">
         <v>1</v>
       </c>
       <c r="J8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="L8" s="31">
         <v>43419</v>
@@ -2922,31 +3102,31 @@
         <v>43395</v>
       </c>
       <c r="C9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G9" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="I9" s="8">
         <v>2</v>
       </c>
       <c r="J9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="L9" s="31">
         <v>43419</v>
@@ -2966,31 +3146,31 @@
         <v>43397</v>
       </c>
       <c r="C10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="27" t="s">
+      <c r="G10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>37</v>
-      </c>
       <c r="H10" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="8">
         <v>1</v>
       </c>
       <c r="J10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="L10" s="31">
         <v>43419</v>
@@ -3003,7 +3183,7 @@
         <v>30</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3014,41 +3194,41 @@
         <v>43397</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="G11" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="I11" s="8">
         <v>1</v>
       </c>
       <c r="J11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="L11" s="31">
         <v>43419</v>
       </c>
       <c r="M11" s="14"/>
       <c r="N11" s="37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
@@ -3059,41 +3239,41 @@
         <v>43397</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="I12" s="8">
         <v>1</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="L12" s="31">
         <v>43419</v>
       </c>
       <c r="M12" s="14"/>
       <c r="N12" s="37" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O12" s="31" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.25">
@@ -3104,41 +3284,41 @@
         <v>43397</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="29" t="s">
         <v>43</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>44</v>
       </c>
       <c r="I13" s="29">
         <v>1</v>
       </c>
       <c r="J13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="L13" s="31">
         <v>43419</v>
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="37" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O13" s="31" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
@@ -3149,38 +3329,38 @@
         <v>43397</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="28" t="s">
         <v>45</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>46</v>
       </c>
       <c r="I14" s="28">
         <v>1</v>
       </c>
       <c r="J14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="L14" s="31">
         <v>43419</v>
       </c>
       <c r="M14" s="14"/>
       <c r="N14" s="37" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O14" s="31"/>
     </row>
@@ -3192,41 +3372,41 @@
         <v>43397</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I15" s="8">
         <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="L15" s="31">
         <v>43419</v>
       </c>
       <c r="M15" s="14"/>
       <c r="N15" s="37" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O15" s="31" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
@@ -3235,31 +3415,31 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="I16" s="8">
         <v>1</v>
       </c>
       <c r="J16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="L16" s="31">
         <v>43419</v>
@@ -3277,31 +3457,31 @@
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="E17" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="I17" s="8">
         <v>1</v>
       </c>
       <c r="J17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="L17" s="31">
         <v>43419</v>
@@ -3321,31 +3501,31 @@
         <v>43402</v>
       </c>
       <c r="C18" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="G18" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I18" s="8">
         <v>1</v>
       </c>
       <c r="J18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="L18" s="31">
         <v>43419</v>
@@ -3358,42 +3538,42 @@
         <v>15</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="6">
         <v>43402</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I19" s="8">
         <v>1</v>
       </c>
       <c r="J19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="L19" s="31">
         <v>43419</v>
@@ -3406,87 +3586,87 @@
         <v>7.5</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="6">
         <v>43402</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="22" t="s">
         <v>56</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>57</v>
       </c>
       <c r="I20" s="22">
         <v>1</v>
       </c>
       <c r="J20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="L20" s="31">
         <v>43419</v>
       </c>
       <c r="M20" s="14"/>
       <c r="N20" s="37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="6">
         <v>43402</v>
       </c>
       <c r="C21" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="G21" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="I21" s="8">
         <v>1</v>
       </c>
       <c r="J21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="L21" s="31">
         <v>43419</v>
@@ -3500,37 +3680,37 @@
     </row>
     <row r="22" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="6">
         <v>43402</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I22" s="34">
         <v>1</v>
       </c>
       <c r="J22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="L22" s="31">
         <v>43419</v>
@@ -3544,37 +3724,37 @@
     </row>
     <row r="23" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="6">
         <v>43402</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I23" s="8">
         <v>1</v>
       </c>
       <c r="J23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="L23" s="31">
         <v>43419</v>
@@ -3588,37 +3768,37 @@
     </row>
     <row r="24" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="6">
         <v>43418</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I24" s="22">
         <v>1</v>
       </c>
       <c r="J24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="L24" s="31">
         <v>43419</v>
@@ -3631,42 +3811,42 @@
         <v>7.5</v>
       </c>
       <c r="O24" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="6">
         <v>43418</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="I25" s="22">
         <v>1</v>
       </c>
       <c r="J25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="L25" s="31">
         <v>43419</v>
@@ -3680,37 +3860,37 @@
     </row>
     <row r="26" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="6">
         <v>43418</v>
       </c>
       <c r="C26" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>81</v>
-      </c>
       <c r="E26" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I26" s="22">
         <v>1</v>
       </c>
       <c r="J26" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" s="22" t="s">
         <v>78</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>79</v>
       </c>
       <c r="L26" s="31">
         <v>43419</v>
@@ -3724,37 +3904,37 @@
     </row>
     <row r="27" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="6">
         <v>43418</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I27" s="22">
         <v>1</v>
       </c>
       <c r="J27" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="22" t="s">
         <v>78</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>79</v>
       </c>
       <c r="L27" s="31">
         <v>43419</v>
@@ -3767,32 +3947,34 @@
         <v>15</v>
       </c>
       <c r="O27" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="6">
         <v>43430</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="G28" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -3804,33 +3986,43 @@
       </c>
       <c r="O28" s="8"/>
     </row>
-    <row r="29" spans="1:15" s="13" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="13" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="6">
         <v>43430</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I29" s="8">
+        <v>1</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="31">
+        <v>43440</v>
+      </c>
       <c r="M29" s="7"/>
       <c r="N29" s="37">
         <f t="shared" si="0"/>
@@ -3840,31 +4032,41 @@
     </row>
     <row r="30" spans="1:15" s="13" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="6">
         <v>43430</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I30" s="8">
+        <v>1</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="31">
+        <v>43440</v>
+      </c>
       <c r="M30" s="7"/>
       <c r="N30" s="37">
         <f t="shared" si="0"/>
@@ -3874,31 +4076,41 @@
     </row>
     <row r="31" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="6">
         <v>43430</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
+        <v>36</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I31" s="8">
+        <v>1</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="31">
+        <v>43440</v>
+      </c>
       <c r="M31" s="5"/>
       <c r="N31" s="37">
         <f t="shared" si="0"/>
@@ -3908,31 +4120,41 @@
     </row>
     <row r="32" spans="1:15" ht="114" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="6">
         <v>43430</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
+        <v>36</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="I32" s="23">
+        <v>1</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="31">
+        <v>43440</v>
+      </c>
       <c r="M32" s="5"/>
       <c r="N32" s="37">
         <f t="shared" si="0"/>
@@ -3942,31 +4164,41 @@
     </row>
     <row r="33" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="6">
         <v>43430</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" s="23">
+        <v>1</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="31">
+        <v>43440</v>
+      </c>
       <c r="M33" s="7"/>
       <c r="N33" s="37">
         <f t="shared" si="0"/>
@@ -3976,31 +4208,39 @@
     </row>
     <row r="34" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="6">
         <v>43430</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
+      <c r="J34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="31">
+        <v>43440</v>
+      </c>
       <c r="M34" s="7"/>
       <c r="N34" s="37">
         <f t="shared" si="0"/>
@@ -4010,31 +4250,39 @@
     </row>
     <row r="35" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="6">
         <v>43430</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H35" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
+      <c r="J35" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="31">
+        <v>43440</v>
+      </c>
       <c r="M35" s="7"/>
       <c r="N35" s="37">
         <f t="shared" si="0"/>
@@ -4042,33 +4290,43 @@
       </c>
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="6">
         <v>43430</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I36" s="8">
+        <v>2</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="31">
+        <v>43440</v>
+      </c>
       <c r="M36" s="7"/>
       <c r="N36" s="37">
         <f t="shared" si="0"/>
@@ -4078,31 +4336,41 @@
     </row>
     <row r="37" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="6">
         <v>43430</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I37" s="8">
+        <v>2</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="31">
+        <v>43440</v>
+      </c>
       <c r="M37" s="7"/>
       <c r="N37" s="37">
         <f t="shared" si="0"/>
@@ -4112,31 +4380,39 @@
     </row>
     <row r="38" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="6">
         <v>43427</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
+      <c r="J38" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="31">
+        <v>43440</v>
+      </c>
       <c r="M38" s="7"/>
       <c r="N38" s="37">
         <f t="shared" si="0"/>
@@ -4146,31 +4422,37 @@
     </row>
     <row r="39" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="6">
         <v>43427</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H39" s="46" t="s">
+        <v>147</v>
+      </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
+      <c r="K39" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="L39" s="31">
+        <v>43440</v>
+      </c>
       <c r="M39" s="7"/>
       <c r="N39" s="37">
         <f t="shared" si="0"/>
@@ -4180,270 +4462,326 @@
     </row>
     <row r="40" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="6">
         <v>43427</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I40" s="8">
+        <v>1</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="31">
+        <v>43440</v>
+      </c>
       <c r="M40" s="7"/>
       <c r="N40" s="37" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
     </row>
-    <row r="41" spans="1:15" ht="171" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="6">
         <v>43427</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H41" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
+      <c r="J41" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="31">
+        <v>43440</v>
+      </c>
       <c r="M41" s="7"/>
       <c r="N41" s="37" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="6">
         <v>43427</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I42" s="8">
+        <v>2</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="31">
+        <v>43440</v>
+      </c>
       <c r="M42" s="7"/>
-      <c r="N42" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="O42" s="8" t="s">
-        <v>126</v>
-      </c>
+      <c r="N42" s="37"/>
+      <c r="O42" s="8"/>
     </row>
     <row r="43" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="6">
         <v>43427</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H43" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
+      <c r="J43" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="31">
+        <v>43440</v>
+      </c>
       <c r="M43" s="7"/>
-      <c r="N43" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="N43" s="37"/>
       <c r="O43" s="8"/>
     </row>
-    <row r="44" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="6">
         <v>43427</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H44" s="46" t="s">
+        <v>156</v>
+      </c>
       <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
+      <c r="J44" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="L44" s="31">
+        <v>43440</v>
+      </c>
       <c r="M44" s="7"/>
-      <c r="N44" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="N44" s="37"/>
       <c r="O44" s="8"/>
     </row>
-    <row r="45" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="6">
         <v>43427</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H45" s="46" t="s">
+        <v>169</v>
+      </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
+      <c r="K45" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="L45" s="31">
+        <v>43440</v>
+      </c>
       <c r="M45" s="7"/>
-      <c r="N45" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="N45" s="37"/>
       <c r="O45" s="8"/>
     </row>
     <row r="46" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="6">
         <v>43427</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I46" s="8">
+        <v>1</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="31">
+        <v>43440</v>
+      </c>
       <c r="M46" s="7"/>
-      <c r="N46" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="8"/>
-    </row>
-    <row r="47" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="N46" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="6">
         <v>43427</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>157</v>
+      </c>
       <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
+      <c r="J47" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="31">
+        <v>43440</v>
+      </c>
       <c r="M47" s="7"/>
       <c r="N47" s="37">
         <f t="shared" si="0"/>
@@ -4453,31 +4791,41 @@
     </row>
     <row r="48" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="6">
         <v>43427</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I48" s="8">
+        <v>2</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="31">
+        <v>43440</v>
+      </c>
       <c r="M48" s="7"/>
       <c r="N48" s="37">
         <f t="shared" si="0"/>
@@ -4485,33 +4833,43 @@
       </c>
       <c r="O48" s="8"/>
     </row>
-    <row r="49" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" s="6">
         <v>43427</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>104</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I49" s="8">
+        <v>1</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="31">
+        <v>43440</v>
+      </c>
       <c r="M49" s="7"/>
       <c r="N49" s="37">
         <f t="shared" si="0"/>
@@ -4519,33 +4877,43 @@
       </c>
       <c r="O49" s="8"/>
     </row>
-    <row r="50" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" s="6">
         <v>43427</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I50" s="8">
+        <v>1</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="31">
+        <v>43440</v>
+      </c>
       <c r="M50" s="7"/>
       <c r="N50" s="37">
         <f t="shared" si="0"/>
@@ -4555,31 +4923,41 @@
     </row>
     <row r="51" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" s="6">
         <v>43427</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I51" s="8">
+        <v>1</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="31">
+        <v>43440</v>
+      </c>
       <c r="M51" s="7"/>
       <c r="N51" s="37">
         <f t="shared" si="0"/>
@@ -4587,33 +4965,41 @@
       </c>
       <c r="O51" s="8"/>
     </row>
-    <row r="52" spans="1:15" ht="57" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" s="6">
         <v>43427</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H52" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="I52" s="8">
+        <v>2</v>
+      </c>
       <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
+      <c r="K52" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="L52" s="31">
+        <v>43440</v>
+      </c>
       <c r="M52" s="7"/>
       <c r="N52" s="37">
         <f t="shared" si="0"/>
@@ -4621,33 +5007,41 @@
       </c>
       <c r="O52" s="8"/>
     </row>
-    <row r="53" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="57" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" s="6">
-        <v>43432</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>119</v>
+        <v>43427</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>92</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H53" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="I53" s="8">
+        <v>1</v>
+      </c>
       <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
+      <c r="K53" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="L53" s="31">
+        <v>43440</v>
+      </c>
       <c r="M53" s="7"/>
       <c r="N53" s="37">
         <f t="shared" si="0"/>
@@ -4655,33 +5049,43 @@
       </c>
       <c r="O53" s="8"/>
     </row>
-    <row r="54" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" s="6">
-        <v>43432</v>
+        <v>43427</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I54" s="8">
+        <v>1</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="31">
+        <v>43440</v>
+      </c>
       <c r="M54" s="7"/>
       <c r="N54" s="37">
         <f t="shared" si="0"/>
@@ -4691,31 +5095,41 @@
     </row>
     <row r="55" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" s="6">
-        <v>43432</v>
+        <v>43427</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I55" s="8">
+        <v>2</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="31">
+        <v>43440</v>
+      </c>
       <c r="M55" s="7"/>
       <c r="N55" s="37">
         <f t="shared" si="0"/>
@@ -4723,70 +5137,300 @@
       </c>
       <c r="O55" s="8"/>
     </row>
-    <row r="56" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" s="6">
-        <v>43432</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>119</v>
+        <v>43427</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>92</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I56" s="8">
+        <v>2</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="31">
+        <v>43440</v>
+      </c>
       <c r="M56" s="7"/>
-      <c r="N56" s="45"/>
+      <c r="N56" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="O56" s="8"/>
     </row>
-    <row r="57" spans="1:15" ht="57" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" s="6">
         <v>43432</v>
       </c>
       <c r="C57" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I57" s="8">
+        <v>1</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="31">
+        <v>43440</v>
+      </c>
+      <c r="M57" s="7"/>
+      <c r="N57" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="8"/>
+    </row>
+    <row r="58" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>56</v>
+      </c>
+      <c r="B58" s="6">
+        <v>43432</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I58" s="8">
+        <v>1</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="31">
+        <v>43440</v>
+      </c>
+      <c r="M58" s="7"/>
+      <c r="N58" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="8"/>
+    </row>
+    <row r="59" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>57</v>
+      </c>
+      <c r="B59" s="6">
+        <v>43432</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I59" s="8">
+        <v>1</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" s="31">
+        <v>43440</v>
+      </c>
+      <c r="M59" s="7"/>
+      <c r="N59" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="8"/>
+    </row>
+    <row r="60" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>58</v>
+      </c>
+      <c r="B60" s="6">
+        <v>43432</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="I60" s="8">
+        <v>2</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L60" s="31">
+        <v>43440</v>
+      </c>
+      <c r="M60" s="7"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="8"/>
+    </row>
+    <row r="61" spans="1:15" ht="57" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>59</v>
+      </c>
+      <c r="B61" s="6">
+        <v>43432</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61" s="31">
+        <v>43440</v>
+      </c>
+      <c r="M61" s="7"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="8"/>
+    </row>
+    <row r="62" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>60</v>
+      </c>
+      <c r="B62" s="6">
+        <v>43440</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F57" s="8" t="s">
+      <c r="D62" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="G57" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="45"/>
-      <c r="O57" s="8"/>
+      <c r="G62" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H62" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="I62" s="8">
+        <v>1</v>
+      </c>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="L62" s="31">
+        <v>43440</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:L62" xr:uid="{A9E1EF1B-DBDE-4CD3-B8A3-2BABD296EA9D}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
@@ -4815,37 +5459,37 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
@@ -4858,6 +5502,41 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5064,42 +5743,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F1DD169-1613-4852-8D49-4C3CB1FDBF80}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5116,29 +5785,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/requirements/MOSIP_Requirements Change_Tracker_27Nov18.xlsx
+++ b/requirements/MOSIP_Requirements Change_Tracker_27Nov18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A05AB67B-7D98-41E4-A211-4A8E54511CA4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E55DBD9C-CA32-45D8-8130-F6D99BFA7D4F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2001,10 +2001,6 @@
 - Articulate it</t>
   </si>
   <si>
-    <t xml:space="preserve">TBD Shravan
-</t>
-  </si>
-  <si>
     <t>Aadhaar way</t>
   </si>
   <si>
@@ -2063,6 +2059,10 @@
     <t xml:space="preserve">TBD with Sanjay
 In a single ABIS solution in which face/Iris is fed to ABIS&lt; face dedupe will not add value
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOSIP API for v1 should support storage and auth with minutiae. 
+MOSIP API for v2 should support storage and auth with minutiae and image. </t>
   </si>
 </sst>
 </file>
@@ -2396,6 +2396,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2404,9 +2407,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2721,7 +2721,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2745,23 +2745,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="57" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
@@ -4442,13 +4442,13 @@
       <c r="G39" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H39" s="46" t="s">
+      <c r="H39" s="43" t="s">
         <v>147</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L39" s="31">
         <v>43440</v>
@@ -4648,7 +4648,7 @@
       <c r="G44" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H44" s="46" t="s">
+      <c r="H44" s="43" t="s">
         <v>156</v>
       </c>
       <c r="I44" s="8"/>
@@ -4656,7 +4656,7 @@
         <v>77</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L44" s="31">
         <v>43440</v>
@@ -4687,13 +4687,13 @@
       <c r="G45" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H45" s="46" t="s">
-        <v>169</v>
+      <c r="H45" s="43" t="s">
+        <v>168</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L45" s="31">
         <v>43440</v>
@@ -4747,7 +4747,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -4769,10 +4769,12 @@
       <c r="G47" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H47" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="I47" s="8"/>
+      <c r="H47" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="I47" s="8">
+        <v>1</v>
+      </c>
       <c r="J47" s="8" t="s">
         <v>77</v>
       </c>
@@ -4856,7 +4858,7 @@
         <v>36</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I49" s="8">
         <v>1</v>
@@ -4982,20 +4984,20 @@
         <v>111</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G52" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H52" s="46" t="s">
-        <v>159</v>
+      <c r="H52" s="43" t="s">
+        <v>158</v>
       </c>
       <c r="I52" s="8">
         <v>2</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L52" s="31">
         <v>43440</v>
@@ -5029,15 +5031,15 @@
       <c r="G53" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H53" s="46" t="s">
-        <v>161</v>
+      <c r="H53" s="43" t="s">
+        <v>160</v>
       </c>
       <c r="I53" s="8">
         <v>1</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L53" s="31">
         <v>43440</v>
@@ -5072,7 +5074,7 @@
         <v>36</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I54" s="8">
         <v>1</v>
@@ -5160,7 +5162,7 @@
         <v>36</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I56" s="8">
         <v>2</v>
@@ -5321,7 +5323,7 @@
         <v>43432</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>64</v>
@@ -5336,7 +5338,7 @@
         <v>36</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I60" s="8">
         <v>2</v>
@@ -5377,7 +5379,7 @@
         <v>36</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8" t="s">
@@ -5415,15 +5417,15 @@
       <c r="G62" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H62" s="46" t="s">
-        <v>167</v>
+      <c r="H62" s="43" t="s">
+        <v>166</v>
       </c>
       <c r="I62" s="8">
         <v>1</v>
       </c>
       <c r="J62" s="8"/>
       <c r="K62" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L62" s="31">
         <v>43440</v>
@@ -5502,41 +5504,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5743,32 +5710,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F1DD169-1613-4852-8D49-4C3CB1FDBF80}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5785,4 +5762,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/requirements/MOSIP_Requirements Change_Tracker_27Nov18.xlsx
+++ b/requirements/MOSIP_Requirements Change_Tracker_27Nov18.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shri/Documents/GitHub/mosip/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E55DBD9C-CA32-45D8-8130-F6D99BFA7D4F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC89C469-B6F5-C24B-BD28-EE044B0708FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_QueryLog_External" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_QueryLog_External!$A$2:$L$62</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="171">
   <si>
     <t>MOSIP - Requirements Change Log</t>
   </si>
@@ -2063,6 +2063,9 @@
   <si>
     <t xml:space="preserve">MOSIP API for v1 should support storage and auth with minutiae. 
 MOSIP API for v2 should support storage and auth with minutiae and image. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New </t>
   </si>
 </sst>
 </file>
@@ -2721,30 +2724,30 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:O1"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.33203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="71.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="41" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="16" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="71.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="34.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="41" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" style="16" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="35" style="3" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="20.28515625" style="16"/>
+    <col min="16" max="16384" width="20.33203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -2763,7 +2766,7 @@
       <c r="N1" s="45"/>
       <c r="O1" s="46"/>
     </row>
-    <row r="2" spans="1:15" ht="57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
@@ -2810,7 +2813,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2823,8 +2826,8 @@
       <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>107</v>
+      <c r="E3" s="28" t="s">
+        <v>170</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>14</v>
@@ -2858,7 +2861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -2906,7 +2909,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -2954,7 +2957,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -3002,7 +3005,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -3048,7 +3051,7 @@
       </c>
       <c r="O7" s="31"/>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -3094,7 +3097,7 @@
       </c>
       <c r="O8" s="31"/>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -3138,7 +3141,7 @@
       </c>
       <c r="O9" s="31"/>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -3186,7 +3189,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -3231,7 +3234,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -3276,7 +3279,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="4" customFormat="1" ht="165" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -3321,7 +3324,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -3364,7 +3367,7 @@
       </c>
       <c r="O14" s="31"/>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -3409,7 +3412,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -3451,7 +3454,7 @@
       </c>
       <c r="O16" s="31"/>
     </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -3493,7 +3496,7 @@
       </c>
       <c r="O17" s="31"/>
     </row>
-    <row r="18" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="75" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -3541,7 +3544,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -3589,7 +3592,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="75" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -3634,7 +3637,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="75" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -3678,7 +3681,7 @@
       </c>
       <c r="O21" s="31"/>
     </row>
-    <row r="22" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="75" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -3722,7 +3725,7 @@
       </c>
       <c r="O22" s="31"/>
     </row>
-    <row r="23" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="75" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -3766,7 +3769,7 @@
       </c>
       <c r="O23" s="31"/>
     </row>
-    <row r="24" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="75" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -3814,7 +3817,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="75" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -3858,7 +3861,7 @@
       </c>
       <c r="O25" s="31"/>
     </row>
-    <row r="26" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -3902,7 +3905,7 @@
       </c>
       <c r="O26" s="22"/>
     </row>
-    <row r="27" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="60" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -3950,7 +3953,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -3986,7 +3989,7 @@
       </c>
       <c r="O28" s="8"/>
     </row>
-    <row r="29" spans="1:15" s="13" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -4030,7 +4033,7 @@
       </c>
       <c r="O29" s="8"/>
     </row>
-    <row r="30" spans="1:15" s="13" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -4074,7 +4077,7 @@
       </c>
       <c r="O30" s="8"/>
     </row>
-    <row r="31" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -4118,7 +4121,7 @@
       </c>
       <c r="O31" s="22"/>
     </row>
-    <row r="32" spans="1:15" ht="114" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="105" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -4162,7 +4165,7 @@
       </c>
       <c r="O32" s="22"/>
     </row>
-    <row r="33" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="60" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -4206,7 +4209,7 @@
       </c>
       <c r="O33" s="8"/>
     </row>
-    <row r="34" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="135" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -4248,7 +4251,7 @@
       </c>
       <c r="O34" s="8"/>
     </row>
-    <row r="35" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="75" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -4290,7 +4293,7 @@
       </c>
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -4334,7 +4337,7 @@
       </c>
       <c r="O36" s="8"/>
     </row>
-    <row r="37" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -4378,7 +4381,7 @@
       </c>
       <c r="O37" s="8"/>
     </row>
-    <row r="38" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -4420,7 +4423,7 @@
       </c>
       <c r="O38" s="8"/>
     </row>
-    <row r="39" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -4460,7 +4463,7 @@
       </c>
       <c r="O39" s="8"/>
     </row>
-    <row r="40" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="270" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -4503,7 +4506,7 @@
       </c>
       <c r="O40" s="8"/>
     </row>
-    <row r="41" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="135" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>39</v>
       </c>
@@ -4546,7 +4549,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="105" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -4587,7 +4590,7 @@
       <c r="N42" s="37"/>
       <c r="O42" s="8"/>
     </row>
-    <row r="43" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -4626,7 +4629,7 @@
       <c r="N43" s="37"/>
       <c r="O43" s="8"/>
     </row>
-    <row r="44" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -4665,7 +4668,7 @@
       <c r="N44" s="37"/>
       <c r="O44" s="8"/>
     </row>
-    <row r="45" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="75" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43</v>
       </c>
@@ -4702,7 +4705,7 @@
       <c r="N45" s="37"/>
       <c r="O45" s="8"/>
     </row>
-    <row r="46" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -4747,7 +4750,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="60" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -4791,7 +4794,7 @@
       </c>
       <c r="O47" s="8"/>
     </row>
-    <row r="48" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -4835,7 +4838,7 @@
       </c>
       <c r="O48" s="8"/>
     </row>
-    <row r="49" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="150" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>47</v>
       </c>
@@ -4879,7 +4882,7 @@
       </c>
       <c r="O49" s="8"/>
     </row>
-    <row r="50" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -4923,7 +4926,7 @@
       </c>
       <c r="O50" s="8"/>
     </row>
-    <row r="51" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>49</v>
       </c>
@@ -4967,7 +4970,7 @@
       </c>
       <c r="O51" s="8"/>
     </row>
-    <row r="52" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -5009,7 +5012,7 @@
       </c>
       <c r="O52" s="8"/>
     </row>
-    <row r="53" spans="1:15" ht="57" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="60" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>51</v>
       </c>
@@ -5051,7 +5054,7 @@
       </c>
       <c r="O53" s="8"/>
     </row>
-    <row r="54" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -5095,7 +5098,7 @@
       </c>
       <c r="O54" s="8"/>
     </row>
-    <row r="55" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>53</v>
       </c>
@@ -5139,7 +5142,7 @@
       </c>
       <c r="O55" s="8"/>
     </row>
-    <row r="56" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="75" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -5183,7 +5186,7 @@
       </c>
       <c r="O56" s="8"/>
     </row>
-    <row r="57" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="75" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -5227,7 +5230,7 @@
       </c>
       <c r="O57" s="8"/>
     </row>
-    <row r="58" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -5271,7 +5274,7 @@
       </c>
       <c r="O58" s="8"/>
     </row>
-    <row r="59" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -5315,7 +5318,7 @@
       </c>
       <c r="O59" s="8"/>
     </row>
-    <row r="60" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="90" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -5356,7 +5359,7 @@
       <c r="N60" s="42"/>
       <c r="O60" s="8"/>
     </row>
-    <row r="61" spans="1:15" ht="57" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>59</v>
       </c>
@@ -5395,7 +5398,7 @@
       <c r="N61" s="42"/>
       <c r="O61" s="8"/>
     </row>
-    <row r="62" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="90" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -5449,52 +5452,52 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" s="15"/>
     </row>
   </sheetData>
@@ -5711,15 +5714,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -5745,6 +5739,15 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F1DD169-1613-4852-8D49-4C3CB1FDBF80}">
   <ds:schemaRefs>
@@ -5765,14 +5768,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5787,4 +5782,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/requirements/MOSIP_Requirements Change_Tracker_27Nov18.xlsx
+++ b/requirements/MOSIP_Requirements Change_Tracker_27Nov18.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\Desktop\PROJECTS\MOSIP\Bootcamp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1047454\git\mosip_master\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A4390250-1AB9-463D-9E64-903C167966F6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="462"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_QueryLog_External" sheetId="5" r:id="rId1"/>
@@ -18,9 +17,9 @@
     <sheet name="Pivot" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_QueryLog_External!$A$2:$Q$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_QueryLog_External!$A$2:$Q$67</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="217">
   <si>
     <t>MOSIP - Requirements Change Log</t>
   </si>
@@ -2520,11 +2519,28 @@
   <si>
     <t>Shrikant/Ramesh</t>
   </si>
+  <si>
+    <t xml:space="preserve">Statsus Updated to Exported for the exported.
+FilePath should be a configurable one.
+Offline only export should work.
+Serice changes, UI changes. 
+EOD Approval Screen On/Off. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Pre-Reg Sync/Batch Job Changes
+2. Multi-lingual changes 
+3. ID object based strucutre changes </t>
+  </si>
+  <si>
+    <t>1. UI change.
+2. Service and Dao changes.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -2969,7 +2985,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2986,7 +3002,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:Q56" sheet="MOSIP_QueryLog_External"/>
   </cacheSource>
@@ -4147,7 +4163,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -4495,37 +4511,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q63" sqref="Q63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.26953125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="71.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="46" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="71.1796875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="44.453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.7265625" style="46" customWidth="1"/>
+    <col min="14" max="14" width="15.81640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="24.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.81640625" style="2" customWidth="1"/>
     <col min="17" max="17" width="35" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="20.28515625" style="12"/>
+    <col min="18" max="16384" width="20.26953125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -4546,7 +4563,7 @@
       <c r="P1" s="67"/>
       <c r="Q1" s="69"/>
     </row>
-    <row r="2" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
@@ -4599,7 +4616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="4" customFormat="1" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -4648,7 +4665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="4" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -4697,7 +4714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="4" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -4746,7 +4763,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="4" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -4795,7 +4812,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -4843,7 +4860,7 @@
       <c r="P7" s="36"/>
       <c r="Q7" s="26"/>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -4890,7 +4907,7 @@
       <c r="P8" s="36"/>
       <c r="Q8" s="26"/>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -4937,7 +4954,7 @@
       <c r="P9" s="36"/>
       <c r="Q9" s="26"/>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -4986,7 +5003,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="98.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="98.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -5039,7 +5056,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="112" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -5092,7 +5109,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="4" customFormat="1" ht="154" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -5145,7 +5162,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="112" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -5198,7 +5215,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="60" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="60" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -5251,7 +5268,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -5304,7 +5321,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -5357,7 +5374,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="252" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -5408,7 +5425,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -5461,7 +5478,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -5514,7 +5531,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -5563,7 +5580,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="63" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" s="63" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -5614,7 +5631,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -5667,7 +5684,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -5714,7 +5731,7 @@
       <c r="P24" s="36"/>
       <c r="Q24" s="18"/>
     </row>
-    <row r="25" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -5755,7 +5772,7 @@
       <c r="P25" s="36"/>
       <c r="Q25" s="38"/>
     </row>
-    <row r="26" spans="1:17" s="10" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" s="10" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -5804,7 +5821,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="10" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" s="10" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -5853,7 +5870,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -5900,7 +5917,7 @@
       <c r="P28" s="36"/>
       <c r="Q28" s="18"/>
     </row>
-    <row r="29" spans="1:17" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -5950,7 +5967,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -5999,7 +6016,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -6044,7 +6061,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -6089,7 +6106,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -6132,7 +6149,7 @@
       <c r="P33" s="36"/>
       <c r="Q33" s="38"/>
     </row>
-    <row r="34" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -6175,7 +6192,7 @@
       <c r="P34" s="36"/>
       <c r="Q34" s="38"/>
     </row>
-    <row r="35" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -6218,7 +6235,7 @@
       <c r="P35" s="36"/>
       <c r="Q35" s="38"/>
     </row>
-    <row r="36" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -6261,7 +6278,7 @@
       <c r="P36" s="36"/>
       <c r="Q36" s="38"/>
     </row>
-    <row r="37" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -6310,7 +6327,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -6355,7 +6372,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -6398,7 +6415,7 @@
       <c r="P39" s="36"/>
       <c r="Q39" s="38"/>
     </row>
-    <row r="40" spans="1:17" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -6441,7 +6458,7 @@
       <c r="P40" s="36"/>
       <c r="Q40" s="38"/>
     </row>
-    <row r="41" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>39</v>
       </c>
@@ -6490,7 +6507,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -6533,7 +6550,7 @@
       <c r="P42" s="36"/>
       <c r="Q42" s="38"/>
     </row>
-    <row r="43" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -6576,7 +6593,7 @@
       <c r="P43" s="36"/>
       <c r="Q43" s="38"/>
     </row>
-    <row r="44" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -6625,7 +6642,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>43</v>
       </c>
@@ -6674,7 +6691,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -6717,7 +6734,7 @@
       <c r="P46" s="36"/>
       <c r="Q46" s="38"/>
     </row>
-    <row r="47" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -6760,7 +6777,7 @@
       <c r="P47" s="36"/>
       <c r="Q47" s="38"/>
     </row>
-    <row r="48" spans="1:17" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -6809,7 +6826,7 @@
       <c r="P48" s="36"/>
       <c r="Q48" s="38"/>
     </row>
-    <row r="49" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>47</v>
       </c>
@@ -6854,7 +6871,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -6897,7 +6914,7 @@
       <c r="P50" s="39"/>
       <c r="Q50" s="38"/>
     </row>
-    <row r="51" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>49</v>
       </c>
@@ -6940,7 +6957,7 @@
       <c r="P51" s="39"/>
       <c r="Q51" s="38"/>
     </row>
-    <row r="52" spans="1:17" ht="171" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="154" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -6989,7 +7006,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>51</v>
       </c>
@@ -7038,7 +7055,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -7081,7 +7098,7 @@
       <c r="P54" s="39"/>
       <c r="Q54" s="38"/>
     </row>
-    <row r="55" spans="1:17" ht="228" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="210" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>53</v>
       </c>
@@ -7118,13 +7135,19 @@
       <c r="L55" s="26">
         <v>43446</v>
       </c>
-      <c r="M55" s="37"/>
-      <c r="N55" s="5"/>
+      <c r="M55" s="37">
+        <v>12</v>
+      </c>
+      <c r="N55" s="5">
+        <v>24</v>
+      </c>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
-      <c r="Q55" s="38"/>
-    </row>
-    <row r="56" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="Q55" s="38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="42" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -7161,13 +7184,17 @@
       <c r="L56" s="26">
         <v>43446</v>
       </c>
-      <c r="M56" s="37"/>
-      <c r="N56" s="5"/>
+      <c r="M56" s="37">
+        <v>2</v>
+      </c>
+      <c r="N56" s="5">
+        <v>4</v>
+      </c>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="38"/>
     </row>
-    <row r="57" spans="1:17" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -7204,13 +7231,19 @@
       <c r="L57" s="26">
         <v>43451</v>
       </c>
-      <c r="M57" s="37"/>
-      <c r="N57" s="5"/>
+      <c r="M57" s="37">
+        <v>9</v>
+      </c>
+      <c r="N57" s="5">
+        <v>18</v>
+      </c>
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
-      <c r="Q57" s="38"/>
-    </row>
-    <row r="58" spans="1:17" ht="114" x14ac:dyDescent="0.25">
+      <c r="Q57" s="38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -7253,7 +7286,7 @@
       <c r="P58" s="5"/>
       <c r="Q58" s="38"/>
     </row>
-    <row r="59" spans="1:17" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="112" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -7290,13 +7323,19 @@
       <c r="L59" s="52">
         <v>43452</v>
       </c>
-      <c r="M59" s="53"/>
-      <c r="N59" s="54"/>
+      <c r="M59" s="53">
+        <v>8</v>
+      </c>
+      <c r="N59" s="54">
+        <v>16</v>
+      </c>
       <c r="O59" s="54"/>
       <c r="P59" s="54"/>
-      <c r="Q59" s="34"/>
-    </row>
-    <row r="60" spans="1:17" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="Q59" s="34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -7339,7 +7378,7 @@
       <c r="P60" s="5"/>
       <c r="Q60" s="38"/>
     </row>
-    <row r="61" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>59</v>
       </c>
@@ -7390,7 +7429,7 @@
       </c>
       <c r="Q61" s="34"/>
     </row>
-    <row r="62" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -7441,7 +7480,7 @@
       </c>
       <c r="Q62" s="38"/>
     </row>
-    <row r="63" spans="1:17" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="126" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>61</v>
       </c>
@@ -7484,7 +7523,7 @@
       <c r="P63" s="5"/>
       <c r="Q63" s="38"/>
     </row>
-    <row r="64" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="84" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -7527,7 +7566,7 @@
       <c r="P64" s="5"/>
       <c r="Q64" s="38"/>
     </row>
-    <row r="65" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="56" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>63</v>
       </c>
@@ -7570,7 +7609,7 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="38"/>
     </row>
-    <row r="66" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="56" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -7613,7 +7652,7 @@
       <c r="P66" s="5"/>
       <c r="Q66" s="38"/>
     </row>
-    <row r="67" spans="1:17" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="140" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>65</v>
       </c>
@@ -7656,7 +7695,7 @@
       <c r="P67" s="5"/>
       <c r="Q67" s="38"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -7676,7 +7715,23 @@
       <c r="Q68" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q62" xr:uid="{134872B1-5513-4DED-8302-378650E5FFBD}"/>
+  <autoFilter ref="A2:Q67">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Registration Client"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="New"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="13">
+      <filters blank="1">
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>
   </mergeCells>
@@ -7686,57 +7741,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B11" s="11"/>
     </row>
   </sheetData>
@@ -7746,19 +7801,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>154</v>
       </c>
@@ -7769,7 +7824,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>66</v>
       </c>
@@ -7780,7 +7835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>39</v>
       </c>
@@ -7791,7 +7846,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>128</v>
       </c>
@@ -7802,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
         <v>74</v>
       </c>
@@ -7813,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="41" t="s">
         <v>16</v>
       </c>
@@ -7824,7 +7879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>48</v>
       </c>
@@ -7835,7 +7890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="41" t="s">
         <v>58</v>
       </c>
@@ -7846,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="41" t="s">
         <v>155</v>
       </c>
@@ -7864,15 +7919,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D32E068FDE16E34B8075022FB1536456" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d905b7d076fda08b8ad7ac1f301e6870">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7784986bdb25cf89cb05135ef15ccb6c" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8044,6 +8090,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -8068,14 +8123,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A013D4-4E69-4E0D-8B8F-1AA53B7A2CEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8089,6 +8136,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/requirements/MOSIP_Requirements Change_Tracker_27Nov18.xlsx
+++ b/requirements/MOSIP_Requirements Change_Tracker_27Nov18.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1047454\git\mosip_master\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mindtree\Projects\MOSIP\IDA\Code\git-repo\master-branch\mosip\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="218">
   <si>
     <t>MOSIP - Requirements Change Log</t>
   </si>
@@ -2535,6 +2535,9 @@
   <si>
     <t>1. UI change.
 2. Service and Dao changes.</t>
+  </si>
+  <si>
+    <t>Currently, we have implemented exact, partial and phonetics. We will disable partial and phonetics for demo auth and add configuration for exact match only.</t>
   </si>
 </sst>
 </file>
@@ -4163,7 +4166,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -4515,9 +4518,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q63" sqref="Q63"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.26953125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -4812,7 +4815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -5917,7 +5920,7 @@
       <c r="P28" s="36"/>
       <c r="Q28" s="18"/>
     </row>
-    <row r="29" spans="1:17" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="126" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -6016,7 +6019,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="140" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -6053,15 +6056,17 @@
       <c r="L31" s="26">
         <v>43440</v>
       </c>
-      <c r="M31" s="37"/>
+      <c r="M31" s="37">
+        <v>10</v>
+      </c>
       <c r="N31" s="36"/>
       <c r="O31" s="36"/>
       <c r="P31" s="36"/>
       <c r="Q31" s="38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="70" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -6098,7 +6103,9 @@
       <c r="L32" s="26">
         <v>43440</v>
       </c>
-      <c r="M32" s="37"/>
+      <c r="M32" s="37">
+        <v>0</v>
+      </c>
       <c r="N32" s="36"/>
       <c r="O32" s="36"/>
       <c r="P32" s="36"/>
@@ -6327,7 +6334,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="56" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -6364,7 +6371,9 @@
       <c r="L38" s="26">
         <v>43440</v>
       </c>
-      <c r="M38" s="37"/>
+      <c r="M38" s="37">
+        <v>0</v>
+      </c>
       <c r="N38" s="36"/>
       <c r="O38" s="36"/>
       <c r="P38" s="36"/>
@@ -6826,7 +6835,7 @@
       <c r="P48" s="36"/>
       <c r="Q48" s="38"/>
     </row>
-    <row r="49" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="42" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>47</v>
       </c>
@@ -6863,7 +6872,9 @@
       <c r="L49" s="26">
         <v>43440</v>
       </c>
-      <c r="M49" s="37"/>
+      <c r="M49" s="37">
+        <v>0</v>
+      </c>
       <c r="N49" s="36"/>
       <c r="O49" s="36"/>
       <c r="P49" s="36"/>
@@ -7098,7 +7109,7 @@
       <c r="P54" s="39"/>
       <c r="Q54" s="38"/>
     </row>
-    <row r="55" spans="1:17" ht="210" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" ht="210" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>53</v>
       </c>
@@ -7147,7 +7158,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="42" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -7194,7 +7205,7 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="38"/>
     </row>
-    <row r="57" spans="1:17" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="106.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -7286,7 +7297,7 @@
       <c r="P58" s="5"/>
       <c r="Q58" s="38"/>
     </row>
-    <row r="59" spans="1:17" ht="112" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -7480,7 +7491,7 @@
       </c>
       <c r="Q62" s="38"/>
     </row>
-    <row r="63" spans="1:17" ht="126" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>61</v>
       </c>
@@ -7523,7 +7534,7 @@
       <c r="P63" s="5"/>
       <c r="Q63" s="38"/>
     </row>
-    <row r="64" spans="1:17" ht="84" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -7566,7 +7577,7 @@
       <c r="P64" s="5"/>
       <c r="Q64" s="38"/>
     </row>
-    <row r="65" spans="1:17" ht="56" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>63</v>
       </c>
@@ -7609,7 +7620,7 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="38"/>
     </row>
-    <row r="66" spans="1:17" ht="56" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -7652,7 +7663,7 @@
       <c r="P66" s="5"/>
       <c r="Q66" s="38"/>
     </row>
-    <row r="67" spans="1:17" ht="140" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>65</v>
       </c>
@@ -7718,7 +7729,7 @@
   <autoFilter ref="A2:Q67">
     <filterColumn colId="3">
       <filters>
-        <filter val="Registration Client"/>
+        <filter val="ID Authentication"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">
@@ -7919,6 +7930,38 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D32E068FDE16E34B8075022FB1536456" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d905b7d076fda08b8ad7ac1f301e6870">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7784986bdb25cf89cb05135ef15ccb6c" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8090,39 +8133,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A013D4-4E69-4E0D-8B8F-1AA53B7A2CEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8138,28 +8173,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>